--- a/input.xlsx
+++ b/input.xlsx
@@ -24,12 +24,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
   <si>
     <t>KRA PIN</t>
   </si>
   <si>
     <t>A012263031Z</t>
+  </si>
+  <si>
+    <t>A012263031p</t>
+  </si>
+  <si>
+    <t>A012263039Z</t>
   </si>
 </sst>
 </file>
@@ -347,10 +353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -370,7 +376,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -390,72 +396,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13365" windowHeight="7260"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13365" windowHeight="7260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="203">
   <si>
     <t>KRA PIN</t>
   </si>
@@ -32,10 +33,607 @@
     <t>A012263031Z</t>
   </si>
   <si>
-    <t>A012263031p</t>
-  </si>
-  <si>
-    <t>A012263039Z</t>
+    <t>A012263031y</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>MEMBERNAME</t>
+  </si>
+  <si>
+    <t>A001290732B</t>
+  </si>
+  <si>
+    <t>Benson M Endegule</t>
+  </si>
+  <si>
+    <t>A008372177Y</t>
+  </si>
+  <si>
+    <t>Lekoloi Leano</t>
+  </si>
+  <si>
+    <t>A009055028N</t>
+  </si>
+  <si>
+    <t>Lengironi Lengeto</t>
+  </si>
+  <si>
+    <t>A005088521Q</t>
+  </si>
+  <si>
+    <t>ALFRED LIHANDA LUVISIA</t>
+  </si>
+  <si>
+    <t>A005560760T</t>
+  </si>
+  <si>
+    <t>SIMON SHIRAKU OMUTITI</t>
+  </si>
+  <si>
+    <t>A006118965B</t>
+  </si>
+  <si>
+    <t>JOSEPHINE MORAA NDIGWAH</t>
+  </si>
+  <si>
+    <t>A007396829G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIUS MWANZIA PHILIP </t>
+  </si>
+  <si>
+    <t>A006511710Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WYCLIFFE ANZIGARE MWANZALI </t>
+  </si>
+  <si>
+    <t>A006682858J</t>
+  </si>
+  <si>
+    <t>DEBORAH AMOS WELLA</t>
+  </si>
+  <si>
+    <t>A009742812R</t>
+  </si>
+  <si>
+    <t>MARIA WANZA AWORI</t>
+  </si>
+  <si>
+    <t>A003604134L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STEPHEN AMBEHI MASHEDI </t>
+  </si>
+  <si>
+    <t>A002273436K</t>
+  </si>
+  <si>
+    <t>STEPHEN J. NGURU  BUKU</t>
+  </si>
+  <si>
+    <t>A004677590P</t>
+  </si>
+  <si>
+    <t>BENARD OJWACH OMENDA</t>
+  </si>
+  <si>
+    <t>A006759573U</t>
+  </si>
+  <si>
+    <t>JOYCE AKINYI ACHAYO</t>
+  </si>
+  <si>
+    <t>A007031892O</t>
+  </si>
+  <si>
+    <t>ALPHONCE OMONDI MASAWA</t>
+  </si>
+  <si>
+    <t>A004093906J</t>
+  </si>
+  <si>
+    <t>EMILY AKOTH ONGARO</t>
+  </si>
+  <si>
+    <t>A002462120A</t>
+  </si>
+  <si>
+    <t>MUTULU MUNYOKI</t>
+  </si>
+  <si>
+    <t>A002909668T</t>
+  </si>
+  <si>
+    <t>JULIUS THATHI KISWII</t>
+  </si>
+  <si>
+    <t>A003048889J</t>
+  </si>
+  <si>
+    <t>KENNEDY KAREMBU MAINA</t>
+  </si>
+  <si>
+    <t>A009564970J</t>
+  </si>
+  <si>
+    <t>JOYCE CHERUTO</t>
+  </si>
+  <si>
+    <t>A005635555F</t>
+  </si>
+  <si>
+    <t>JACOB KAMAU KITUSA</t>
+  </si>
+  <si>
+    <t>A001315356Q</t>
+  </si>
+  <si>
+    <t>BONIFACE MUSYOKA YUMBYA</t>
+  </si>
+  <si>
+    <t>A008765519E</t>
+  </si>
+  <si>
+    <t>JACINTAH KAMENE MUSAU</t>
+  </si>
+  <si>
+    <t>A004057115F</t>
+  </si>
+  <si>
+    <t>MOSES KIOKO NZIOKA</t>
+  </si>
+  <si>
+    <t>A003109022D</t>
+  </si>
+  <si>
+    <t>RICHARD KIPRUTO YEGON</t>
+  </si>
+  <si>
+    <t>A004657449J</t>
+  </si>
+  <si>
+    <t>DOREEN KAVULI MANTHI</t>
+  </si>
+  <si>
+    <t>A009565002Q</t>
+  </si>
+  <si>
+    <t>AGNES MWAKA WAKALO</t>
+  </si>
+  <si>
+    <t>A009651117J</t>
+  </si>
+  <si>
+    <t>NEEMA MARK RAYIA</t>
+  </si>
+  <si>
+    <t>A002753248W</t>
+  </si>
+  <si>
+    <t>CAROLINE KERUBO OKIOGA</t>
+  </si>
+  <si>
+    <t>A002820013Z</t>
+  </si>
+  <si>
+    <t>PRISCILLA WANJIRU WACHU</t>
+  </si>
+  <si>
+    <t>A002704752W</t>
+  </si>
+  <si>
+    <t>HENRY CHERUIYOT CHANGWONY</t>
+  </si>
+  <si>
+    <t>A008339704X</t>
+  </si>
+  <si>
+    <t>SARAH ALISON RANK</t>
+  </si>
+  <si>
+    <t>A003655950E</t>
+  </si>
+  <si>
+    <t>LAURAH WANGUI KAMAU</t>
+  </si>
+  <si>
+    <t>A009480425N</t>
+  </si>
+  <si>
+    <t>KASONGO RUBAGISA JIMMY</t>
+  </si>
+  <si>
+    <t>A004836339G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MICHAEL KATANA THOYA </t>
+  </si>
+  <si>
+    <t>A008901465Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KRAPH NDIRO KALAMA </t>
+  </si>
+  <si>
+    <t>A004098164Z</t>
+  </si>
+  <si>
+    <t>MOGENI NYANCHAMA NAOM</t>
+  </si>
+  <si>
+    <t>A005124503X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRACE  NALIAKA KHAMUSINI </t>
+  </si>
+  <si>
+    <t>A004078154V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTIN KOORI GACHOKI </t>
+  </si>
+  <si>
+    <t>A004861823R</t>
+  </si>
+  <si>
+    <t>BAYA FELIX YAA</t>
+  </si>
+  <si>
+    <t>A003254684X</t>
+  </si>
+  <si>
+    <t>KANANA  ROSE MUTHURI</t>
+  </si>
+  <si>
+    <t>A004439115P</t>
+  </si>
+  <si>
+    <t>NJAI  MERCY NYAGUTHII</t>
+  </si>
+  <si>
+    <t>A001239575D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THOMAS VALENTINE ONGOGO  </t>
+  </si>
+  <si>
+    <t>A005100121L</t>
+  </si>
+  <si>
+    <t>RWANDA  CHRISTOPHER BUNDI</t>
+  </si>
+  <si>
+    <t>A009751660Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OMONG'OT  SHARON OKUNYUK </t>
+  </si>
+  <si>
+    <t>A004831725P</t>
+  </si>
+  <si>
+    <t>MADOBE  MARYAN NOOR</t>
+  </si>
+  <si>
+    <t>A006227279E</t>
+  </si>
+  <si>
+    <t>PAUL  LOKAALE EWALAN</t>
+  </si>
+  <si>
+    <t>A005132452E</t>
+  </si>
+  <si>
+    <t>DANSON LUSOMO</t>
+  </si>
+  <si>
+    <t>A007063870S</t>
+  </si>
+  <si>
+    <t>FELIX MWAURA</t>
+  </si>
+  <si>
+    <t>A009094699K</t>
+  </si>
+  <si>
+    <t>HUDSON  MAKEWA MBINDYO</t>
+  </si>
+  <si>
+    <t>A008072256Z</t>
+  </si>
+  <si>
+    <t>BILHA NYAMBURA KAHAMA</t>
+  </si>
+  <si>
+    <t>A006708545H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOROTHY AWUOR OSIRO </t>
+  </si>
+  <si>
+    <t>A007180879W</t>
+  </si>
+  <si>
+    <t>IVAN AMBASI IMBWAGA</t>
+  </si>
+  <si>
+    <t>A007180984U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OKOTH BORN ARITO  </t>
+  </si>
+  <si>
+    <t>A009107081S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CATHERINE ANYANGA GADI </t>
+  </si>
+  <si>
+    <t>A005524234O</t>
+  </si>
+  <si>
+    <t>ANDREW MUHORO MUGURE</t>
+  </si>
+  <si>
+    <t>A005122743D</t>
+  </si>
+  <si>
+    <t>JOHN NDUNGU KABUE</t>
+  </si>
+  <si>
+    <t>A006922236V</t>
+  </si>
+  <si>
+    <t>EMILY MNYAZI LEWA</t>
+  </si>
+  <si>
+    <t>A007070463K</t>
+  </si>
+  <si>
+    <t>FRANKLINE JOHN OMONDI</t>
+  </si>
+  <si>
+    <t>A009345126R</t>
+  </si>
+  <si>
+    <t>TABITHA KERUBO KURENDI</t>
+  </si>
+  <si>
+    <t>A003266674C</t>
+  </si>
+  <si>
+    <t>ALEX EMBOHAH ATSIAYA</t>
+  </si>
+  <si>
+    <t>A007283546T</t>
+  </si>
+  <si>
+    <t>TIMOTHY MAWIRA KAMUNDE</t>
+  </si>
+  <si>
+    <t>A004804441S</t>
+  </si>
+  <si>
+    <t>YUSUF ABDI HUSSEIN</t>
+  </si>
+  <si>
+    <t>A009253559Z</t>
+  </si>
+  <si>
+    <t>JACKLINE  KANGELEHA</t>
+  </si>
+  <si>
+    <t>A009105695A</t>
+  </si>
+  <si>
+    <t>WYCLIFF OUMA OYOO</t>
+  </si>
+  <si>
+    <t>A008421417C</t>
+  </si>
+  <si>
+    <t>COSMAS NDIKU MBITHI</t>
+  </si>
+  <si>
+    <t>A009237444X</t>
+  </si>
+  <si>
+    <t>FELIX KILONZO NTHENGE</t>
+  </si>
+  <si>
+    <t>A007369136B</t>
+  </si>
+  <si>
+    <t>BENARD MUTUKU NYIKA</t>
+  </si>
+  <si>
+    <t>A008192112X</t>
+  </si>
+  <si>
+    <t>EVANSON KARIUKI KARANJA</t>
+  </si>
+  <si>
+    <t>A007679869C</t>
+  </si>
+  <si>
+    <t>GIDEON ONDAKO MAINA</t>
+  </si>
+  <si>
+    <t>A009514148W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KENNEDY OCHIENG OUMA </t>
+  </si>
+  <si>
+    <t>A009393910N</t>
+  </si>
+  <si>
+    <t>ZACHARIAH NYANDIKA OSIEMO</t>
+  </si>
+  <si>
+    <t>A006202664N</t>
+  </si>
+  <si>
+    <t>SAMWEL ONYANGO OMENGO</t>
+  </si>
+  <si>
+    <t>A009557604B</t>
+  </si>
+  <si>
+    <t>SUMPATI MASIENG PURUO</t>
+  </si>
+  <si>
+    <t>A004501972R</t>
+  </si>
+  <si>
+    <t>MOSES LESEIYO PARKEN</t>
+  </si>
+  <si>
+    <t>A002158138Z</t>
+  </si>
+  <si>
+    <t>JONAH WANDERI GACHUHI</t>
+  </si>
+  <si>
+    <t>A005127018E</t>
+  </si>
+  <si>
+    <t>MARY WACERA MWANGI</t>
+  </si>
+  <si>
+    <t>A003544185A</t>
+  </si>
+  <si>
+    <t>GAO WEI</t>
+  </si>
+  <si>
+    <t>A008778978F</t>
+  </si>
+  <si>
+    <t>ADAN ABDUBA DENGICHA</t>
+  </si>
+  <si>
+    <t>A006987498F</t>
+  </si>
+  <si>
+    <t>MOSES OWINO OGOKHA</t>
+  </si>
+  <si>
+    <t>A009540333M</t>
+  </si>
+  <si>
+    <t>HAMDANI AMIRI MKONGO</t>
+  </si>
+  <si>
+    <t>A009491734R</t>
+  </si>
+  <si>
+    <t>KEVIN KIPTANUI RAMDAS</t>
+  </si>
+  <si>
+    <t>A007069074C</t>
+  </si>
+  <si>
+    <t>FINLAY NYASWABU GESORA</t>
+  </si>
+  <si>
+    <t>A005596602X</t>
+  </si>
+  <si>
+    <t>ERASTUS OMONDI OKOTH</t>
+  </si>
+  <si>
+    <t>A006461572R</t>
+  </si>
+  <si>
+    <t>DOMINIC MUEMA MULE</t>
+  </si>
+  <si>
+    <t>A007445897P</t>
+  </si>
+  <si>
+    <t>WYCLIFFE KASAVULI SINGA</t>
+  </si>
+  <si>
+    <t>A007241434D</t>
+  </si>
+  <si>
+    <t>JOSHUA NYAATA MORUYE</t>
+  </si>
+  <si>
+    <t>A007931616P</t>
+  </si>
+  <si>
+    <t>JACKSON MUTUKU WAMBUA</t>
+  </si>
+  <si>
+    <t>A002663781D</t>
+  </si>
+  <si>
+    <t>EVELYNE OWINO</t>
+  </si>
+  <si>
+    <t>A007259667M</t>
+  </si>
+  <si>
+    <t>CAROLINE NEKESA SIKUKU</t>
+  </si>
+  <si>
+    <t>A008756112U</t>
+  </si>
+  <si>
+    <t>GLADYS RUGURU NDWIGA</t>
+  </si>
+  <si>
+    <t>A006470979E</t>
+  </si>
+  <si>
+    <t>MIRIAM WANGUI KAMAU</t>
+  </si>
+  <si>
+    <t>A005090677S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELPHAS KHAIYA </t>
+  </si>
+  <si>
+    <t>A002923545X</t>
+  </si>
+  <si>
+    <t>LIZ MBULA MUTINDA</t>
+  </si>
+  <si>
+    <t>A000000000A</t>
+  </si>
+  <si>
+    <t>HANNAH MWANGI</t>
+  </si>
+  <si>
+    <t>A005073971T</t>
+  </si>
+  <si>
+    <t>FEISAL OKACHA MULAMA</t>
+  </si>
+  <si>
+    <t>A005063460K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WILSON MATHIAS OLWETE </t>
+  </si>
+  <si>
+    <t>A009112971O</t>
+  </si>
+  <si>
+    <t>MARY AHONO ONDUNYI</t>
+  </si>
+  <si>
+    <t>A008572897P</t>
+  </si>
+  <si>
+    <t>PETER NJUGUNA</t>
   </si>
 </sst>
 </file>
@@ -353,10 +951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -376,12 +974,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -394,9 +992,1123 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101:XFD211"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>163</v>
+      </c>
+      <c r="C81" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>165</v>
+      </c>
+      <c r="C82" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>167</v>
+      </c>
+      <c r="C83" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>169</v>
+      </c>
+      <c r="C84" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>173</v>
+      </c>
+      <c r="C86" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>177</v>
+      </c>
+      <c r="C88" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>179</v>
+      </c>
+      <c r="C89" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>183</v>
+      </c>
+      <c r="C91" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>185</v>
+      </c>
+      <c r="C92" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>187</v>
+      </c>
+      <c r="C93" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>189</v>
+      </c>
+      <c r="C94" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>191</v>
+      </c>
+      <c r="C95" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>193</v>
+      </c>
+      <c r="C96" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>195</v>
+      </c>
+      <c r="C97" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>197</v>
+      </c>
+      <c r="C98" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>199</v>
+      </c>
+      <c r="C99" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
